--- a/Lab 1.3/Stakeholders.xlsx
+++ b/Lab 1.3/Stakeholders.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/19521377_ms_uit_edu_vn/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoc\git\SE357-Practice-class\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{E8A7D8A3-38EA-47E5-A6F4-D7DDB2EBB39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D8602F5-F6B8-4571-B5AB-803662F7B98D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F46C6F-29B3-49D3-A038-E2CC09A45BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F476952-A708-43F4-8E25-B415E73842BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -123,9 +123,6 @@
     <t>User feedback submission and customer support contact option</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -136,13 +133,35 @@
   </si>
   <si>
     <t>Requirements Stakeholders Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Admin/User</t>
+  </si>
+  <si>
+    <t>Requirement ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank 1 -5 </t>
+  </si>
+  <si>
+    <t>Stakeholder Source (A - Admin,
+ U - User, D - Developer)</t>
+  </si>
+  <si>
+    <t>A,U</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,24 +177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -269,11 +272,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,9 +284,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -294,12 +301,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -309,10 +310,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -628,10 +642,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A3:W26"/>
+  <dimension ref="A3:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:M18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,96 +654,99 @@
     <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="68.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="12" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -745,55 +762,55 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="12" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -809,55 +826,55 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -873,55 +890,55 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -937,55 +954,55 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>10</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1001,73 +1018,184 @@
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H26" s="6"/>
-    </row>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="21" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="F21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14">
+        <v>5</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="14">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>5</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="14">
+        <v>3</v>
+      </c>
+      <c r="G24" s="14">
+        <v>4</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="14">
+        <v>4</v>
+      </c>
+      <c r="G25" s="14">
+        <v>5</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="14">
+        <v>5</v>
+      </c>
+      <c r="G26" s="14">
+        <v>5</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="14">
+        <v>6</v>
+      </c>
+      <c r="G27" s="14">
+        <v>3</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="14">
+        <v>7</v>
+      </c>
+      <c r="G28" s="14">
+        <v>5</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="14">
+        <v>8</v>
+      </c>
+      <c r="G29" s="14">
+        <v>2</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="14">
+        <v>9</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="14">
+        <v>10</v>
+      </c>
+      <c r="G31" s="14">
+        <v>3</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="14">
+        <v>11</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="B14:C14"/>
@@ -1078,26 +1206,36 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K18" xr:uid="{584C7518-572B-49A5-B53A-45A683E4EF26}">

--- a/Lab 1.3/Stakeholders.xlsx
+++ b/Lab 1.3/Stakeholders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoc\git\SE357-Practice-class\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F46C6F-29B3-49D3-A038-E2CC09A45BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91F78B2-6491-4954-82A3-E286ED089B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F476952-A708-43F4-8E25-B415E73842BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F476952-A708-43F4-8E25-B415E73842BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Traceability" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,40 +295,40 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,109 +650,109 @@
   </sheetPr>
   <dimension ref="A3:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="68.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="12.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="68.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -758,59 +764,59 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="8" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -822,59 +828,59 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -886,59 +892,59 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -950,59 +956,59 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>10</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1014,203 +1020,180 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="21" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="F21" s="15" t="s">
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="21" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="14">
+    <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="18">
         <v>1</v>
       </c>
-      <c r="G22" s="14">
-        <v>5</v>
-      </c>
-      <c r="H22" s="14" t="s">
+      <c r="G22" s="7">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="14">
+    <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="18">
         <v>2</v>
       </c>
-      <c r="G23" s="14">
-        <v>5</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="G23" s="7">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="14">
+    <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="18">
         <v>3</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="7">
         <v>4</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="14">
+    <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="18">
         <v>4</v>
       </c>
-      <c r="G25" s="14">
-        <v>5</v>
-      </c>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="7">
+        <v>5</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="14">
-        <v>5</v>
-      </c>
-      <c r="G26" s="14">
-        <v>5</v>
-      </c>
-      <c r="H26" s="18" t="s">
+    <row r="26" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="18">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7">
+        <v>5</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="14">
+    <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="18">
         <v>6</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="7">
         <v>3</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="14">
+    <row r="28" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="18">
         <v>7</v>
       </c>
-      <c r="G28" s="14">
-        <v>5</v>
-      </c>
-      <c r="H28" s="18" t="s">
+      <c r="G28" s="7">
+        <v>5</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="14">
+    <row r="29" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="18">
         <v>8</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="7">
         <v>2</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="14">
+    <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="18">
         <v>9</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="7">
         <v>1</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="14">
+    <row r="31" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="18">
         <v>10</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="7">
         <v>3</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="14">
+    <row r="32" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="18">
         <v>11</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="7">
         <v>1</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
@@ -1224,18 +1207,41 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K18" xr:uid="{584C7518-572B-49A5-B53A-45A683E4EF26}">
